--- a/data/financedb.xlsx
+++ b/data/financedb.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gionelle Tribiana\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gionelle Tribiana\Documents\Workspace\exec-dashboard-upm\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8C51C3-157B-4B98-9AAC-C53CF5D44FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD0AAB2-E7AC-48DD-A36F-9A62EE823780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="14" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Select Employees" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <sheet name="Net Pay0" sheetId="12" r:id="rId13"/>
     <sheet name="Employees by Gender" sheetId="13" r:id="rId14"/>
     <sheet name="Gross Salary Based on Position" sheetId="14" r:id="rId15"/>
-    <sheet name="Payroll Summary by Department" sheetId="15" r:id="rId16"/>
+    <sheet name="payroll_summary" sheetId="15" r:id="rId16"/>
     <sheet name="Select Employees1" sheetId="16" r:id="rId17"/>
     <sheet name="Cost to Company Revision Detail" sheetId="17" r:id="rId18"/>
     <sheet name="Gross Salary vs Net Salary Payr" sheetId="18" r:id="rId19"/>
@@ -363,13 +363,13 @@
     <t>Profit</t>
   </si>
   <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>Florida</t>
+    <t>CAS</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>PGH</t>
   </si>
 </sst>
 </file>
@@ -464,25 +464,25 @@
       <numFmt numFmtId="167" formatCode="[$$-409]###,###,##0;\([$$-409]0\);"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="175" formatCode="[$$-409]0.00"/>
+      <numFmt numFmtId="169" formatCode="[$$-409]0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="174" formatCode="[$$-409]0.00,,,&quot;B&quot;"/>
+      <numFmt numFmtId="170" formatCode="[$$-409]0.00,,,&quot;B&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="173" formatCode="[$$-409]0.00,,&quot;M&quot;"/>
+      <numFmt numFmtId="171" formatCode="[$$-409]0.00,,&quot;M&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="172" formatCode="[$$-409]0.00,\K"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="175" formatCode="[$$-409]0.00"/>
+      <numFmt numFmtId="169" formatCode="[$$-409]0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="174" formatCode="[$$-409]0.00,,,&quot;B&quot;"/>
+      <numFmt numFmtId="170" formatCode="[$$-409]0.00,,,&quot;B&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="173" formatCode="[$$-409]0.00,,&quot;M&quot;"/>
+      <numFmt numFmtId="171" formatCode="[$$-409]0.00,,&quot;M&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="172" formatCode="[$$-409]0.00,\K"/>
@@ -518,13 +518,13 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="0.00,,,&quot;B&quot;"/>
+      <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode="0.00,,&quot;M&quot;"/>
+      <numFmt numFmtId="174" formatCode="0.00,,&quot;M&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.00,\K"/>
+      <numFmt numFmtId="175" formatCode="0.00,\K"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="###,###,##0"/>
@@ -1052,11 +1052,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F83C85D-215A-4398-8595-9F9EEC05EAEF}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1103,7 +1110,7 @@
         <v>443898.53</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E3">
         <v>191792.06</v>
@@ -1120,7 +1127,7 @@
         <v>407934.54</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E4">
         <v>191050.39</v>
@@ -1137,7 +1144,7 @@
         <v>383199.62</v>
       </c>
       <c r="D5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E5">
         <v>182901.99</v>
@@ -1154,7 +1161,7 @@
         <v>366168.42</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E6">
         <v>166187.94</v>
@@ -1171,7 +1178,7 @@
         <v>362861.36</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E7">
         <v>156991.12</v>
@@ -1188,7 +1195,7 @@
         <v>127716.82</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E8">
         <v>156122.51</v>
@@ -1205,7 +1212,7 @@
         <v>323876.68</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E9">
         <v>155752.6</v>
@@ -1222,7 +1229,7 @@
         <v>311613.28999999998</v>
       </c>
       <c r="D10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E10">
         <v>152211.76999999999</v>
@@ -1239,7 +1246,7 @@
         <v>304981.62</v>
       </c>
       <c r="D11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E11">
         <v>149759.96</v>
@@ -1256,7 +1263,7 @@
         <v>229160.95</v>
       </c>
       <c r="D12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E12">
         <v>146121.95000000001</v>
@@ -1273,7 +1280,7 @@
         <v>249744.55</v>
       </c>
       <c r="D13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E13">
         <v>144259.4</v>
@@ -1290,7 +1297,7 @@
         <v>249839.44</v>
       </c>
       <c r="D14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E14">
         <v>141585.51999999999</v>
@@ -1307,7 +1314,7 @@
         <v>252664.93</v>
       </c>
       <c r="D15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E15">
         <v>134307.35</v>
@@ -1324,7 +1331,7 @@
         <v>256512.92</v>
       </c>
       <c r="D16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E16">
         <v>132602.65</v>
@@ -1341,7 +1348,7 @@
         <v>261776.23</v>
       </c>
       <c r="D17" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E17">
         <v>129917.04</v>
@@ -1358,7 +1365,7 @@
         <v>264346.06</v>
       </c>
       <c r="D18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E18">
         <v>126992.93</v>
@@ -1375,7 +1382,7 @@
         <v>282574.31</v>
       </c>
       <c r="D19" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E19">
         <v>125370.37</v>
@@ -1392,7 +1399,7 @@
         <v>294919.57</v>
       </c>
       <c r="D20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E20">
         <v>124266.9</v>
@@ -1409,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E21">
         <v>122776.86</v>
@@ -1426,7 +1433,7 @@
         <v>298664.46999999997</v>
       </c>
       <c r="D22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E22">
         <v>118474.03</v>
@@ -1443,7 +1450,7 @@
         <v>299737.28999999998</v>
       </c>
       <c r="D23" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E23">
         <v>111313.02</v>
@@ -1460,7 +1467,7 @@
         <v>303319.26</v>
       </c>
       <c r="D24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E24">
         <v>110352.25</v>
@@ -1477,7 +1484,7 @@
         <v>304768.73</v>
       </c>
       <c r="D25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E25">
         <v>108733.99</v>
@@ -1494,7 +1501,7 @@
         <v>140574.81</v>
       </c>
       <c r="D26" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E26">
         <v>108552.04</v>
@@ -1511,7 +1518,7 @@
         <v>137962.62</v>
       </c>
       <c r="D27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E27">
         <v>107404.34</v>
@@ -1528,7 +1535,7 @@
         <v>134050.07</v>
       </c>
       <c r="D28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E28">
         <v>105733.54</v>
@@ -1545,7 +1552,7 @@
         <v>353183.81</v>
       </c>
       <c r="D29" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E29">
         <v>105008.31</v>
@@ -1562,7 +1569,7 @@
         <v>118148.2</v>
       </c>
       <c r="D30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E30">
         <v>103282.38</v>
@@ -1579,7 +1586,7 @@
         <v>107138.38</v>
       </c>
       <c r="D31" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E31">
         <v>101004.64</v>
@@ -1596,7 +1603,7 @@
         <v>91131.24</v>
       </c>
       <c r="D32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E32">
         <v>99937.59</v>
@@ -1613,7 +1620,7 @@
         <v>88218.23</v>
       </c>
       <c r="D33" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E33">
         <v>97483.56</v>
@@ -1630,7 +1637,7 @@
         <v>46085.25</v>
       </c>
       <c r="D34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E34">
         <v>97427.839999999997</v>
@@ -1647,7 +1654,7 @@
         <v>214634.81</v>
       </c>
       <c r="D35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E35">
         <v>96778.92</v>
@@ -1664,7 +1671,7 @@
         <v>210797.67</v>
       </c>
       <c r="D36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E36">
         <v>96712.8</v>
@@ -1681,7 +1688,7 @@
         <v>205517.64</v>
       </c>
       <c r="D37" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E37">
         <v>96479.51</v>
@@ -1698,7 +1705,7 @@
         <v>201126.82</v>
       </c>
       <c r="D38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E38">
         <v>90708.19</v>
@@ -1715,7 +1722,7 @@
         <v>197029.42</v>
       </c>
       <c r="D39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E39">
         <v>89949.14</v>
@@ -1732,7 +1739,7 @@
         <v>185265.1</v>
       </c>
       <c r="D40" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E40">
         <v>81229.06</v>
@@ -1749,7 +1756,7 @@
         <v>174999.3</v>
       </c>
       <c r="D41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E41">
         <v>81005.759999999995</v>
@@ -1766,7 +1773,7 @@
         <v>172795.67</v>
       </c>
       <c r="D42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E42">
         <v>78239.91</v>
@@ -1783,7 +1790,7 @@
         <v>164470.71</v>
       </c>
       <c r="D43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E43">
         <v>77798.83</v>
@@ -1800,7 +1807,7 @@
         <v>148001.10999999999</v>
       </c>
       <c r="D44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E44">
         <v>71498.490000000005</v>
@@ -1817,7 +1824,7 @@
         <v>35534.17</v>
       </c>
       <c r="D45" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E45">
         <v>69758.98</v>
@@ -1834,7 +1841,7 @@
         <v>28334.720000000001</v>
       </c>
       <c r="D46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E46">
         <v>65200.33</v>
@@ -1851,7 +1858,7 @@
         <v>1903.93</v>
       </c>
       <c r="D47" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E47">
         <v>64926.080000000002</v>
@@ -1868,7 +1875,7 @@
         <v>297114.46000000002</v>
       </c>
       <c r="D48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E48">
         <v>49490.75</v>
@@ -1885,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E49">
         <v>42559.73</v>
@@ -1902,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E50">
         <v>35673.410000000003</v>
@@ -1919,7 +1926,7 @@
         <v>45173.06</v>
       </c>
       <c r="D51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E51">
         <v>14681.4</v>
@@ -2304,7 +2311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2312,7 +2319,7 @@
     <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -4295,7 +4302,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
